--- a/results.xlsx
+++ b/results.xlsx
@@ -1,32 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingikwon/Documents/grad_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingikwon/Documents/grad_project/ultimate final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007CD6AC-B2E3-FA4F-8AC0-A19E8879378A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFA3C56-0DE5-6747-8FE7-AA2F61FE0C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="51200" windowHeight="26080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet!$B$2:$B$76</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet!$C$2:$C$76</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet!$B$2:$B$76</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet!$C$2:$C$76</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Generation</t>
   </si>
@@ -37,232 +31,406 @@
     <t>FOM</t>
   </si>
   <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>Power consumption</t>
+  </si>
+  <si>
+    <t>Noise figure</t>
+  </si>
+  <si>
     <t>Individual</t>
   </si>
   <si>
-    <t>4567, 3169, 741, 93531, 428, 1.79p, 4.46p, 0.18p, 0.343, 0.252, 0.746, 0.391</t>
-  </si>
-  <si>
-    <t>5976, 3228, 442, 14615, 122, 2.05p, 4.96p, 0.65p, 0.372, 0.331, 0.336, 0.308</t>
-  </si>
-  <si>
-    <t>4180, 1994, 441, 34258, 997, 1.95p, 0.64p, 0.81p, 0.175, 0.255, 0.118, 0.04</t>
-  </si>
-  <si>
-    <t>5670, 3779, 437, 98487, 815, 2.18p, 2.35p, 0.62p, 0.346, 0.084, 0.281, 0.23</t>
-  </si>
-  <si>
-    <t>3068, 3869, 417, 61987, 534, 1.99p, 0.56p, 0.41p, 0.27, 0.231, 0.708, 0.037</t>
-  </si>
-  <si>
-    <t>4248, 2583, 306, 52590, 612, 1.53p, 2.59p, 0.85p, 0.337, 0.185, 0.982, 0.207</t>
-  </si>
-  <si>
-    <t>3470, 3233, 658, 59511, 759, 1.93p, 3.2p, 0.99p, 0.108, 0.184, 0.638, 0.155</t>
-  </si>
-  <si>
-    <t>4358, 3110, 465, 2576, 241, 2.96p, 4.22p, 0.97p, 0.375, 0.057, 0.123, 0.216</t>
-  </si>
-  <si>
-    <t>5645, 1776, 87, 68351, 539, 2.26p, 2.79p, 0.32p, 0.111, 0.022, 0.277, 0.18</t>
-  </si>
-  <si>
-    <t>5673, 2807, 723, 19022, 858, 1.97p, 3.73p, 0.52p, 0.116, 0.437, 0.275, 0.391</t>
-  </si>
-  <si>
-    <t>3625, 2433, 831, 24150, 353, 2.08p, 4.55p, 0.96p, 0.204, 0.065, 0.614, 0.096</t>
-  </si>
-  <si>
-    <t>5993, 1686, 204, 23179, 995, 2.28p, 2.37p, 0.39p, 0.276, 0.062, 0.848, 0.313</t>
-  </si>
-  <si>
-    <t>4240, 3127, 329, 14842, 140, 1.54p, 3.3p, 0.7p, 0.321, 0.086, 0.291, 0.266</t>
-  </si>
-  <si>
-    <t>5127, 1905, 854, 76580, 462, 1.78p, 0.54p, 0.41p, 0.234, 0.384, 0.142, 0.064</t>
-  </si>
-  <si>
-    <t>3539, 2251, 722, 97191, 966, 2.48p, 3.59p, 0.62p, 0.12, 0.11, 0.06, 0.045</t>
-  </si>
-  <si>
-    <t>4735, 1748, 820, 14371, 807, 2.65p, 3.03p, 0.36p, 0.238, 0.472, 0.86, 0.252</t>
-  </si>
-  <si>
-    <t>3413, 3663, 188, 17061, 817, 2.11p, 1.93p, 0.32p, 0.207, 0.346, 0.863, 0.475</t>
-  </si>
-  <si>
-    <t>3358, 2433, 229, 44326, 740, 2.13p, 2.1p, 0.79p, 0.313, 0.021, 0.852, 0.079</t>
-  </si>
-  <si>
-    <t>3165, 3039, 880, 2592, 301, 1.65p, 1.35p, 0.91p, 0.314, 0.23, 0.25, 0.113</t>
-  </si>
-  <si>
-    <t>3036, 2226, 812, 13099, 374, 2.69p, 2.95p, 0.98p, 0.251, 0.103, 0.609, 0.396</t>
-  </si>
-  <si>
-    <t>4598, 3451, 97, 61099, 433, 2.41p, 4.73p, 0.11p, 0.298, 0.216, 0.101, 0.251</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.252, 0.177, 0.965, 0.048</t>
-  </si>
-  <si>
-    <t>3429, 3606, 831, 31390, 391, 2.75p, 0.52p, 0.17p, 0.309, 0.437, 0.109, 0.012</t>
-  </si>
-  <si>
-    <t>3603, 1540, 105, 74514, 108, 1.58p, 0.32p, 0.97p, 0.133, 0.078, 0.201, 0.306</t>
-  </si>
-  <si>
-    <t>4108, 2213, 516, 77996, 693, 2.04p, 4.71p, 0.49p, 0.375, 0.437, 0.387, 0.328</t>
-  </si>
-  <si>
-    <t>3437, 1786, 287, 41920, 606, 2.57p, 0.84p, 0.67p, 0.272, 0.366, 0.417, 0.178</t>
-  </si>
-  <si>
-    <t>4376, 3759, 969, 61732, 792, 1.55p, 4.82p, 0.45p, 0.398, 0.439, 0.642, 0.372</t>
-  </si>
-  <si>
-    <t>4112, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.252, 0.177, 0.965, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 1939, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.252, 0.177, 0.965, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 2125, 559, 46254, 219, 1.95p, 0.83p, 0.22p, 0.252, 0.177, 0.965, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46947, 219, 1.95p, 0.83p, 0.22p, 0.252, 0.177, 0.965, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 222, 1.95p, 0.83p, 0.22p, 0.252, 0.177, 0.965, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 2.47p, 0.83p, 0.22p, 0.252, 0.177, 0.965, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 3.26p, 0.22p, 0.252, 0.177, 0.965, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.17p, 0.252, 0.177, 0.965, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.965, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.252, 0.264, 0.965, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.252, 0.177, 0.06, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.252, 0.177, 0.965, 0.058</t>
-  </si>
-  <si>
-    <t>4369, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.965, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 3805, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.965, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 2125, 986, 46254, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.965, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 22892, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.965, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 817, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.965, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.62p, 0.83p, 0.22p, 0.38, 0.177, 0.965, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 2.99p, 0.22p, 0.38, 0.177, 0.965, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.84p, 0.38, 0.177, 0.965, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.145, 0.177, 0.965, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.205, 0.965, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.63, 0.048</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.965, 0.014</t>
-  </si>
-  <si>
-    <t>5353, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.965, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2924, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.965, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2125, 920, 46254, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.965, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 65728, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.965, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 793, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.965, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 2.43p, 0.83p, 0.22p, 0.38, 0.177, 0.965, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 3.8p, 0.22p, 0.38, 0.177, 0.965, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.97p, 0.38, 0.177, 0.965, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.237, 0.177, 0.965, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.246, 0.965, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.317, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.965, 0.411</t>
-  </si>
-  <si>
-    <t>3953, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.317, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2813, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.317, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2125, 306, 46254, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.317, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 32127, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.317, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 528, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.317, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 2.09p, 0.83p, 0.22p, 0.38, 0.177, 0.317, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.38p, 0.22p, 0.38, 0.177, 0.317, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.57p, 0.38, 0.177, 0.317, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.337, 0.177, 0.317, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.466, 0.317, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.075, 0.014</t>
-  </si>
-  <si>
-    <t>5300, 2125, 89, 46254, 219, 1.95p, 0.83p, 0.22p, 0.38, 0.177, 0.317, 0.017</t>
+    <t>3058, 2685, 465, 6240, 467, 2.44p, 3.64p, 0.23p, 0.335, 4.33m, 2.08m, 1.32m, 0.403, 0.226, 0.213, 175u, 11.92u, 7.49u, 668n, 17.55u</t>
+  </si>
+  <si>
+    <t>3430, 2524, 919, 19234, 237, 1.93p, 4.21p, 0.79p, 0.137, 5.97m, 3.52m, 1.47m, 0.7, 0.849, 0.374, 122u, 13.35u, 8.31u, 864n, 17.22u</t>
+  </si>
+  <si>
+    <t>3278, 2445, 468, 96855, 514, 1.8p, 3.44p, 0.31p, 0.19, 3.74m, 1.75m, 2.27m, 0.696, 0.47, 0.213, 125u, 17.06u, 8.11u, 1365n, 9.3u</t>
+  </si>
+  <si>
+    <t>4365, 2349, 869, 5204, 136, 2.49p, 2.73p, 0.3p, 0.343, 5.18m, 4.25m, 2.67m, 0.55, 0.419, 0.034, 153u, 14.54u, 2.21u, 671n, 11.69u</t>
+  </si>
+  <si>
+    <t>4863, 3341, 372, 45077, 469, 2.81p, 2.83p, 0.5p, 0.331, 5.15m, 3.77m, 3.2m, 0.528, 0.217, 0.336, 121u, 16.04u, 7.58u, 878n, 12.82u</t>
+  </si>
+  <si>
+    <t>5165, 3258, 968, 38271, 321, 2.47p, 1.25p, 0.86p, 0.296, 5.63m, 4.42m, 4.91m, 0.671, 0.265, 0.198, 137u, 14.72u, 5.0u, 1302n, 15.61u</t>
+  </si>
+  <si>
+    <t>4216, 2404, 483, 91458, 745, 2.58p, 4.03p, 0.78p, 0.154, 3.5m, 1.26m, 1.07m, 0.5, 0.347, 0.119, 153u, 16.78u, 5.37u, 1170n, 14.76u</t>
+  </si>
+  <si>
+    <t>5593, 3297, 388, 99812, 957, 2.48p, 0.89p, 0.15p, 0.236, 3.05m, 1.21m, 1.67m, 0.449, 0.34, 0.363, 115u, 13.32u, 2.76u, 1313n, 14.78u</t>
+  </si>
+  <si>
+    <t>3184, 3798, 32, 69163, 514, 1.97p, 0.32p, 0.25p, 0.282, 4.7m, 2.06m, 1.87m, 0.535, 0.702, 0.477, 178u, 10.13u, 5.41u, 913n, 13.59u</t>
+  </si>
+  <si>
+    <t>5939, 2674, 110, 97850, 412, 1.98p, 5.0p, 0.23p, 0.223, 3.85m, 4.54m, 2.72m, 0.501, 0.351, 0.219, 135u, 10.5u, 7.15u, 1571n, 17.55u</t>
+  </si>
+  <si>
+    <t>5709, 3525, 764, 70445, 541, 2.67p, 1.81p, 0.27p, 0.121, 5.2m, 4.53m, 4.01m, 0.612, 0.407, 0.308, 178u, 11.35u, 7.65u, 1596n, 9.32u</t>
+  </si>
+  <si>
+    <t>5585, 1514, 922, 48085, 312, 2.27p, 1.4p, 0.41p, 0.161, 4.64m, 4.28m, 2.22m, 0.56, 0.247, 0.478, 126u, 10.47u, 2.42u, 1052n, 15.39u</t>
+  </si>
+  <si>
+    <t>4762, 3432, 728, 84674, 367, 2.66p, 1.27p, 0.33p, 0.296, 4.48m, 1.1m, 2.28m, 0.541, 0.515, 0.477, 146u, 17.33u, 2.65u, 587n, 15.78u</t>
+  </si>
+  <si>
+    <t>5711, 3512, 377, 49906, 507, 1.82p, 3.77p, 0.46p, 0.362, 4.51m, 4.63m, 4.21m, 0.469, 0.408, 0.127, 138u, 14.47u, 2.64u, 1264n, 11.12u</t>
+  </si>
+  <si>
+    <t>3732, 1587, 864, 59141, 986, 1.93p, 2.57p, 0.72p, 0.246, 6.54m, 2.28m, 2.35m, 0.373, 0.295, 0.329, 124u, 10.6u, 4.77u, 807n, 11.93u</t>
+  </si>
+  <si>
+    <t>5588, 2142, 361, 71664, 560, 2.52p, 3.52p, 0.71p, 0.337, 3.34m, 4.35m, 1.66m, 0.496, 0.67, 0.225, 134u, 15.14u, 3.85u, 1374n, 16.15u</t>
+  </si>
+  <si>
+    <t>3724, 1793, 439, 45545, 271, 2.38p, 3.31p, 0.58p, 0.139, 5.16m, 1.55m, 2.11m, 0.569, 0.544, 0.105, 90u, 11.85u, 3.84u, 953n, 15.85u</t>
+  </si>
+  <si>
+    <t>3542, 2601, 434, 97641, 783, 2.17p, 4.5p, 0.77p, 0.234, 6.85m, 4.21m, 2.81m, 0.574, 0.79, 0.27, 120u, 10.15u, 4.19u, 823n, 16.62u</t>
+  </si>
+  <si>
+    <t>4497, 1611, 34, 93797, 988, 2.48p, 3.45p, 0.33p, 0.122, 6.86m, 4.01m, 2.25m, 0.336, 0.519, 0.183, 175u, 9.01u, 8.28u, 801n, 14.3u</t>
+  </si>
+  <si>
+    <t>4975, 3576, 187, 7560, 638, 2.57p, 3.47p, 0.59p, 0.358, 5.64m, 2.24m, 4.36m, 0.561, 0.405, 0.26, 98u, 10.11u, 8.33u, 1108n, 11.5u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 764, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>4844, 3926, 524, 73953, 415, 1.63p, 0.68p, 0.27p, 0.252, 6.62m, 4.76m, 3.92m, 0.417, 0.638, 0.425, 101u, 16.18u, 3.55u, 725n, 13.43u</t>
+  </si>
+  <si>
+    <t>3295, 3057, 119, 29098, 487, 2.09p, 1.69p, 0.92p, 0.287, 6.96m, 2.47m, 2.78m, 0.43, 0.402, 0.326, 96u, 9.38u, 8.51u, 1624n, 16.79u</t>
+  </si>
+  <si>
+    <t>4739, 2696, 328, 40401, 707, 2.46p, 2.63p, 0.71p, 0.375, 3.67m, 3.86m, 3.12m, 0.59, 0.531, 0.425, 142u, 16.42u, 5.19u, 1202n, 16.36u</t>
+  </si>
+  <si>
+    <t>5945, 3378, 889, 90959, 525, 2.9p, 1.96p, 0.23p, 0.297, 3.92m, 4.21m, 3.0m, 0.645, 0.296, 0.435, 127u, 17.6u, 8.73u, 1082n, 13.76u</t>
+  </si>
+  <si>
+    <t>4455, 3207, 290, 99859, 604, 2.75p, 2.32p, 0.74p, 0.172, 5.29m, 2.44m, 4.05m, 0.554, 0.499, 0.456, 153u, 9.49u, 5.92u, 1503n, 13.01u</t>
+  </si>
+  <si>
+    <t>5475, 3136, 300, 9445, 646, 2.66p, 3.89p, 0.78p, 0.147, 3.27m, 3.85m, 3.84m, 0.637, 0.955, 0.03, 134u, 11.74u, 8.51u, 1669n, 12.68u</t>
+  </si>
+  <si>
+    <t>5501, 3795, 715, 69831, 997, 2.16p, 2.97p, 0.58p, 0.269, 4.29m, 1.15m, 2.89m, 0.658, 0.92, 0.327, 119u, 17.23u, 4.1u, 916n, 16.05u</t>
+  </si>
+  <si>
+    <t>4674, 2957, 158, 63963, 589, 2.46p, 4.0p, 0.56p, 0.315, 6.54m, 2.67m, 4.92m, 0.607, 0.613, 0.25, 172u, 14.29u, 3.3u, 1760n, 14.42u</t>
+  </si>
+  <si>
+    <t>4054, 3717, 843, 55865, 691, 2.77p, 4.06p, 0.16p, 0.203, 3.51m, 1.67m, 1.11m, 0.411, 0.465, 0.386, 110u, 13.66u, 8.02u, 1632n, 10.2u</t>
+  </si>
+  <si>
+    <t>4132, 3219, 764, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3531, 764, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 764, 92974, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 764, 8078, 179, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 764, 8078, 808, 2.34p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 764, 8078, 808, 2.92p, 0.91p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 764, 8078, 808, 2.92p, 1.05p, 0.38p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 764, 8078, 808, 2.92p, 1.05p, 0.86p, 0.399, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 764, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.68m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 764, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 1.17m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 764, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.35m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 764, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.533, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 764, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.902, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 764, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.333, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 764, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 110u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 764, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 14.33u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 764, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 7.57u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 764, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1202n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 764, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 14.4u</t>
+  </si>
+  <si>
+    <t>3955, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 1773, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 731, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 81604, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 317, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.76p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 4.85p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.26p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.251, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.53m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 1.04m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 2.46m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.464, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.731, 0.337, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 169u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.13u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 5.63u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1002n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.337, 101u, 13.57u, 4.04u, 1628n, 11.47u</t>
+  </si>
+  <si>
+    <t>3523, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 1595, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 856, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 73770, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 857, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.26p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 2.29p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.87p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.165, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 4.9m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 4.85m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.38m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.628, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.997, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.282, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 143u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.25u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 7.9u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1089n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 808, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 9.07u</t>
+  </si>
+  <si>
+    <t>3593, 3219, 897, 8078, 857, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 2125, 897, 8078, 857, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 659, 8078, 857, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 41473, 857, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 998, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 857, 1.51p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 857, 2.92p, 4.62p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 857, 2.92p, 1.05p, 0.57p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 857, 2.92p, 1.05p, 0.86p, 0.248, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 857, 2.92p, 1.05p, 0.86p, 0.106, 5.93m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 857, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.05m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 857, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.09m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 857, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.594, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 857, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.8, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 857, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.267, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 857, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 103u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 857, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 9.22u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 857, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 3.27u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 857, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 896n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 857, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 17.54u</t>
+  </si>
+  <si>
+    <t>5147, 3219, 897, 8078, 998, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 2588, 897, 8078, 998, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 361, 8078, 998, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 49304, 998, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 623, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 998, 2.65p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 998, 2.92p, 2.8p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 998, 2.92p, 1.05p, 0.13p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 998, 2.92p, 1.05p, 0.86p, 0.375, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 998, 2.92p, 1.05p, 0.86p, 0.106, 3.8m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 998, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 4.36m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 998, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 4.24m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 998, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.613, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 998, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.47, 0.068, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 998, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.431, 101u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 998, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 119u, 13.57u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 998, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.58u, 4.04u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 998, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 7.39u, 1628n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 998, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1389n, 13.12u</t>
+  </si>
+  <si>
+    <t>5146, 3219, 897, 8078, 998, 2.92p, 1.05p, 0.86p, 0.106, 3.69m, 3.33m, 3.56m, 0.675, 0.649, 0.068, 101u, 13.57u, 4.04u, 1628n, 16.81u</t>
   </si>
 </sst>
 </file>
@@ -332,31 +500,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>FOM</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -389,14 +532,25 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FOM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -405,26 +559,14 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet!$B$2:$B$76</c:f>
+              <c:f>Sheet!$B$2:$B$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="130"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -650,247 +792,577 @@
                 <c:pt idx="74">
                   <c:v>75</c:v>
                 </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet!$C$2:$C$76</c:f>
+              <c:f>Sheet!$C$2:$C$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="130"/>
                 <c:pt idx="0">
-                  <c:v>62.305999999999997</c:v>
+                  <c:v>-83.677999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.36</c:v>
+                  <c:v>311.99799999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8440000000000001</c:v>
+                  <c:v>325.12400000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.151</c:v>
+                  <c:v>196.76400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>178.327</c:v>
+                  <c:v>157.977</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93.245999999999995</c:v>
+                  <c:v>245.732</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>175.839</c:v>
+                  <c:v>247.87</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.106</c:v>
+                  <c:v>253.79599999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.954999999999998</c:v>
+                  <c:v>-306.995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56.518999999999998</c:v>
+                  <c:v>17.475000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>192.113</c:v>
+                  <c:v>228.624</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44.835000000000001</c:v>
+                  <c:v>265.19400000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.2270000000000003</c:v>
+                  <c:v>323.12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>61.268000000000001</c:v>
+                  <c:v>164.10900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.369</c:v>
+                  <c:v>169.56899999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>145.34399999999999</c:v>
+                  <c:v>277.99700000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.223999999999997</c:v>
+                  <c:v>351.85500000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>56.161999999999999</c:v>
+                  <c:v>244.601</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>53.997999999999998</c:v>
+                  <c:v>-193.196</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>62.527999999999999</c:v>
+                  <c:v>120.09099999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28.989000000000001</c:v>
+                  <c:v>568.35699999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>546.29399999999998</c:v>
+                  <c:v>206.791</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>136.57900000000001</c:v>
+                  <c:v>43.828000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11.43</c:v>
+                  <c:v>266.18400000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>56.613</c:v>
+                  <c:v>321.79899999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>83.001999999999995</c:v>
+                  <c:v>207.715</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>72.322000000000003</c:v>
+                  <c:v>292.64400000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>543.96600000000001</c:v>
+                  <c:v>436.76299999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>545.61300000000006</c:v>
+                  <c:v>121.64</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>247.93</c:v>
+                  <c:v>294.47300000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>546.29399999999998</c:v>
+                  <c:v>518.58100000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>546.45500000000004</c:v>
+                  <c:v>521.27599999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>602.62699999999995</c:v>
+                  <c:v>582.00199999999995</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>500.154</c:v>
+                  <c:v>568.35699999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>544.45600000000002</c:v>
+                  <c:v>457.786</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>618.67600000000004</c:v>
+                  <c:v>467.08100000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>537.96799999999996</c:v>
+                  <c:v>520.27</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>608.66200000000003</c:v>
+                  <c:v>547.69299999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>449.23700000000002</c:v>
+                  <c:v>544.399</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>616.29499999999996</c:v>
+                  <c:v>568.48900000000003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>621.94600000000003</c:v>
+                  <c:v>559.822</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>443.32100000000003</c:v>
+                  <c:v>562.03099999999995</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>619.62900000000002</c:v>
+                  <c:v>504.51499999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>650.99300000000005</c:v>
+                  <c:v>515.60500000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>575.64800000000002</c:v>
+                  <c:v>568.35699999999997</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>569.88699999999994</c:v>
+                  <c:v>492.67200000000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>624.93499999999995</c:v>
+                  <c:v>524.41999999999996</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>481.74799999999999</c:v>
+                  <c:v>539.59100000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>614.86699999999996</c:v>
+                  <c:v>557.30700000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>647.17999999999995</c:v>
+                  <c:v>522.92499999999995</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1982.539</c:v>
+                  <c:v>529.35599999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1982.989</c:v>
+                  <c:v>530.97900000000004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1984.2739999999999</c:v>
+                  <c:v>564.101</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1307.377</c:v>
+                  <c:v>581.476</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1981.519</c:v>
+                  <c:v>484.54700000000003</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2221.8119999999999</c:v>
+                  <c:v>519.41899999999998</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2197.4920000000002</c:v>
+                  <c:v>537.56399999999996</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1818.402</c:v>
+                  <c:v>547.51900000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1976.87</c:v>
+                  <c:v>519.15</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1718.0840000000001</c:v>
+                  <c:v>581.476</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1955.2940000000001</c:v>
+                  <c:v>565.00900000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2273.6570000000002</c:v>
+                  <c:v>536.85500000000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>14.920999999999999</c:v>
+                  <c:v>512.17499999999995</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2261.31</c:v>
+                  <c:v>577.83399999999995</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2277.4479999999999</c:v>
+                  <c:v>582.00199999999995</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>33.017000000000003</c:v>
+                  <c:v>367.113</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2274.6770000000001</c:v>
+                  <c:v>579.42499999999995</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2422.9160000000002</c:v>
+                  <c:v>546.61</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2343.549</c:v>
+                  <c:v>561.96</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2516.0030000000002</c:v>
+                  <c:v>530.80799999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2275.018</c:v>
+                  <c:v>577.74300000000005</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2177.8490000000002</c:v>
+                  <c:v>530.53700000000003</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2228.0100000000002</c:v>
+                  <c:v>577.92200000000003</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2367.877</c:v>
+                  <c:v>581.476</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1874.1020000000001</c:v>
+                  <c:v>584.56100000000004</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>471.00599999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>535.43299999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>533.26099999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>569.38</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>492.72300000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>542.09699999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>576.13300000000004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>526.35400000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>582.57299999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>582.00199999999995</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>424.18599999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>578.94299999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>554.82500000000005</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>519.79700000000003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>573.096</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>579.60500000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>582.81700000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>509.81299999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>584.56100000000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>590.14200000000005</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>386.93299999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>540.45000000000005</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>578.56100000000004</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>567.99300000000005</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>459.92399999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>582.30200000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>567.245</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>571.32100000000003</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>530.57600000000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>584.56100000000004</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>529.08799999999997</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>556.08799999999997</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>578.41800000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>557.322</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>538.28099999999995</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>590.14200000000005</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>587.322</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>412.89800000000002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>540.96299999999997</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>519.97500000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>563.90800000000002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>543.11500000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>504.14</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>569.34699999999998</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>541.21199999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>545.50800000000004</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>555.12199999999996</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>578.57799999999997</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>534.59100000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>590.14200000000005</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>487.05</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>589.01300000000003</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>563.06100000000004</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>586.53099999999995</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>592.66899999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-65AB-F144-9CD5-D897FBB1FA3F}"/>
+              <c16:uniqueId val="{00000000-D136-2842-AFDC-B2C098A60880}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -902,30 +1374,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1033270736"/>
-        <c:axId val="1033272928"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1033270736"/>
+        <c:smooth val="0"/>
+        <c:axId val="923467792"/>
+        <c:axId val="923470064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="923467792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -935,8 +1394,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -963,12 +1422,15 @@
             <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1033272928"/>
+        <c:crossAx val="923470064"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="1033272928"/>
+        <c:axId val="923470064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,14 +1456,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1025,9 +1481,9 @@
             <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1033270736"/>
+        <c:crossAx val="923467792"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1115,7 +1571,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1142,8 +1598,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1223,6 +1679,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1233,6 +1694,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1244,7 +1710,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1264,6 +1730,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1276,10 +1745,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1319,23 +1788,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1440,8 +1908,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1573,20 +2041,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1600,17 +2067,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1634,23 +2090,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8038DA41-509F-02E5-A9AD-4319E9B29483}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA818774-AA9D-5D2C-B2FE-E94F33093953}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1956,15 +2412,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1977,8 +2436,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1986,13 +2454,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>62.305999999999997</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-83.677999999999997</v>
+      </c>
+      <c r="D2">
+        <v>-3.16</v>
+      </c>
+      <c r="E2">
+        <v>8.999999612569809E-3</v>
+      </c>
+      <c r="F2">
+        <v>4.1959999999999997</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2000,13 +2477,22 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>30.36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>311.99799999999999</v>
+      </c>
+      <c r="D3">
+        <v>15.071999999999999</v>
+      </c>
+      <c r="E3">
+        <v>1.30000002682209E-2</v>
+      </c>
+      <c r="F3">
+        <v>3.7160000000000002</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2014,13 +2500,22 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1.8440000000000001</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>325.12400000000002</v>
+      </c>
+      <c r="D4">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="E4">
+        <v>8.999999612569809E-3</v>
+      </c>
+      <c r="F4">
+        <v>3.0859999999999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2028,13 +2523,22 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>24.151</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>196.76400000000001</v>
+      </c>
+      <c r="D5">
+        <v>12.319000000000001</v>
+      </c>
+      <c r="E5">
+        <v>1.4000000432133669E-2</v>
+      </c>
+      <c r="F5">
+        <v>4.4720000000000004</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2042,13 +2546,22 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>178.327</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>157.977</v>
+      </c>
+      <c r="D6">
+        <v>5.3390000000000004</v>
+      </c>
+      <c r="E6">
+        <v>1.4000000432133669E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2056,13 +2569,22 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>93.245999999999995</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>245.732</v>
+      </c>
+      <c r="D7">
+        <v>11.3</v>
+      </c>
+      <c r="E7">
+        <v>1.7000000923871991E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.7050000000000001</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2070,13 +2592,22 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>175.839</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>247.87</v>
+      </c>
+      <c r="D8">
+        <v>6.9820000000000002</v>
+      </c>
+      <c r="E8">
+        <v>7.0000002160668373E-3</v>
+      </c>
+      <c r="F8">
+        <v>4.024</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2084,13 +2615,22 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>10.106</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>253.79599999999999</v>
+      </c>
+      <c r="D9">
+        <v>5.5659999999999998</v>
+      </c>
+      <c r="E9">
+        <v>7.0000002160668373E-3</v>
+      </c>
+      <c r="F9">
+        <v>3.133</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2098,13 +2638,22 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>23.954999999999998</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-306.995</v>
+      </c>
+      <c r="D10">
+        <v>-12.728</v>
+      </c>
+      <c r="E10">
+        <v>9.9999997764825821E-3</v>
+      </c>
+      <c r="F10">
+        <v>4.1459999999999999</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2112,13 +2661,22 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>56.518999999999998</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17.475000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="E11">
+        <v>1.30000002682209E-2</v>
+      </c>
+      <c r="F11">
+        <v>2.98</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2126,13 +2684,22 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>192.113</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>228.624</v>
+      </c>
+      <c r="D12">
+        <v>10.535</v>
+      </c>
+      <c r="E12">
+        <v>1.6000000759959221E-2</v>
+      </c>
+      <c r="F12">
+        <v>2.88</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -2140,13 +2707,22 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>44.835000000000001</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>265.19400000000002</v>
+      </c>
+      <c r="D13">
+        <v>11.956</v>
+      </c>
+      <c r="E13">
+        <v>1.30000002682209E-2</v>
+      </c>
+      <c r="F13">
+        <v>3.468</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2154,13 +2730,22 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>6.2270000000000003</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>323.12</v>
+      </c>
+      <c r="D14">
+        <v>10.978</v>
+      </c>
+      <c r="E14">
+        <v>8.999999612569809E-3</v>
+      </c>
+      <c r="F14">
+        <v>3.7749999999999999</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2168,13 +2753,22 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>61.268000000000001</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>164.10900000000001</v>
+      </c>
+      <c r="D15">
+        <v>6.8879999999999999</v>
+      </c>
+      <c r="E15">
+        <v>1.4000000432133669E-2</v>
+      </c>
+      <c r="F15">
+        <v>2.9980000000000002</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -2182,13 +2776,22 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>44.369</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>169.56899999999999</v>
+      </c>
+      <c r="D16">
+        <v>6.5140000000000002</v>
+      </c>
+      <c r="E16">
+        <v>1.30000002682209E-2</v>
+      </c>
+      <c r="F16">
+        <v>2.9550000000000001</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2196,13 +2799,22 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>145.34399999999999</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>277.99700000000001</v>
+      </c>
+      <c r="D17">
+        <v>9.8130000000000006</v>
+      </c>
+      <c r="E17">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F17">
+        <v>3.2090000000000001</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2210,13 +2822,22 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>32.223999999999997</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>351.85500000000002</v>
+      </c>
+      <c r="D18">
+        <v>12.423999999999999</v>
+      </c>
+      <c r="E18">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F18">
+        <v>3.21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2224,13 +2845,22 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>56.161999999999999</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>244.601</v>
+      </c>
+      <c r="D19">
+        <v>10.465</v>
+      </c>
+      <c r="E19">
+        <v>1.6000000759959221E-2</v>
+      </c>
+      <c r="F19">
+        <v>2.6739999999999999</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2238,13 +2868,22 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>53.997999999999998</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-193.196</v>
+      </c>
+      <c r="D20">
+        <v>-10.006</v>
+      </c>
+      <c r="E20">
+        <v>1.6000000759959221E-2</v>
+      </c>
+      <c r="F20">
+        <v>3.2370000000000001</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2252,13 +2891,22 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>62.527999999999999</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>120.09099999999999</v>
+      </c>
+      <c r="D21">
+        <v>3.3759999999999999</v>
+      </c>
+      <c r="E21">
+        <v>1.4000000432133669E-2</v>
+      </c>
+      <c r="F21">
+        <v>2.008</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2266,13 +2914,22 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>28.989000000000001</v>
-      </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>568.35699999999997</v>
+      </c>
+      <c r="D22">
+        <v>12.954000000000001</v>
+      </c>
+      <c r="E22">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F22">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2280,13 +2937,22 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>546.29399999999998</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>206.791</v>
+      </c>
+      <c r="D23">
+        <v>9.4459999999999997</v>
+      </c>
+      <c r="E23">
+        <v>1.7000000923871991E-2</v>
+      </c>
+      <c r="F23">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2294,13 +2960,22 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>136.57900000000001</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43.828000000000003</v>
+      </c>
+      <c r="D24">
+        <v>1.526</v>
+      </c>
+      <c r="E24">
+        <v>1.4000000432133669E-2</v>
+      </c>
+      <c r="F24">
+        <v>2.4870000000000001</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2308,13 +2983,22 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>11.43</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>266.18400000000003</v>
+      </c>
+      <c r="D25">
+        <v>8.6020000000000003</v>
+      </c>
+      <c r="E25">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F25">
+        <v>2.6930000000000001</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2322,13 +3006,22 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>56.613</v>
-      </c>
-      <c r="D26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>321.79899999999998</v>
+      </c>
+      <c r="D26">
+        <v>9.9689999999999994</v>
+      </c>
+      <c r="E26">
+        <v>1.30000002682209E-2</v>
+      </c>
+      <c r="F26">
+        <v>2.383</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2336,13 +3029,22 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>83.001999999999995</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>207.715</v>
+      </c>
+      <c r="D27">
+        <v>8.093</v>
+      </c>
+      <c r="E27">
+        <v>1.4000000432133669E-2</v>
+      </c>
+      <c r="F27">
+        <v>2.7829999999999999</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2350,55 +3052,91 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>72.322000000000003</v>
-      </c>
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>292.64400000000001</v>
+      </c>
+      <c r="D28">
+        <v>8.8870000000000005</v>
+      </c>
+      <c r="E28">
+        <v>1.30000002682209E-2</v>
+      </c>
+      <c r="F28">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29">
-        <v>543.96600000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>436.76299999999998</v>
+      </c>
+      <c r="D29">
+        <v>11.928000000000001</v>
+      </c>
+      <c r="E29">
+        <v>9.9999997764825821E-3</v>
+      </c>
+      <c r="F29">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
       <c r="C30">
-        <v>545.61300000000006</v>
-      </c>
-      <c r="D30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>121.64</v>
+      </c>
+      <c r="D30">
+        <v>5.9379999999999997</v>
+      </c>
+      <c r="E30">
+        <v>1.6000000759959221E-2</v>
+      </c>
+      <c r="F30">
+        <v>3.0510000000000002</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
       <c r="C31">
-        <v>247.93</v>
-      </c>
-      <c r="D31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>294.47300000000001</v>
+      </c>
+      <c r="D31">
+        <v>7.2039999999999997</v>
+      </c>
+      <c r="E31">
+        <v>8.0000003799796104E-3</v>
+      </c>
+      <c r="F31">
+        <v>3.0579999999999998</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2406,13 +3144,22 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>546.29399999999998</v>
-      </c>
-      <c r="D32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>518.58100000000002</v>
+      </c>
+      <c r="D32">
+        <v>13.006</v>
+      </c>
+      <c r="E32">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F32">
+        <v>2.09</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2420,13 +3167,22 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>546.45500000000004</v>
-      </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>521.27599999999995</v>
+      </c>
+      <c r="D33">
+        <v>12.961</v>
+      </c>
+      <c r="E33">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F33">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2434,13 +3190,22 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>602.62699999999995</v>
-      </c>
-      <c r="D34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>582.00199999999995</v>
+      </c>
+      <c r="D34">
+        <v>13.265000000000001</v>
+      </c>
+      <c r="E34">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F34">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2448,13 +3213,22 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>500.154</v>
-      </c>
-      <c r="D35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>568.35699999999997</v>
+      </c>
+      <c r="D35">
+        <v>12.954000000000001</v>
+      </c>
+      <c r="E35">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F35">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2462,13 +3236,22 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>544.45600000000002</v>
-      </c>
-      <c r="D36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>457.786</v>
+      </c>
+      <c r="D36">
+        <v>16.321000000000002</v>
+      </c>
+      <c r="E36">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F36">
+        <v>2.9710000000000001</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2476,13 +3259,22 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>618.67600000000004</v>
-      </c>
-      <c r="D37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>467.08100000000002</v>
+      </c>
+      <c r="D37">
+        <v>12.414999999999999</v>
+      </c>
+      <c r="E37">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F37">
+        <v>2.2149999999999999</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2490,13 +3282,22 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>537.96799999999996</v>
-      </c>
-      <c r="D38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>520.27</v>
+      </c>
+      <c r="D38">
+        <v>12.936</v>
+      </c>
+      <c r="E38">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F38">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2504,13 +3305,22 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>608.66200000000003</v>
-      </c>
-      <c r="D39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>547.69299999999998</v>
+      </c>
+      <c r="D39">
+        <v>12.477</v>
+      </c>
+      <c r="E39">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F39">
+        <v>2.0710000000000002</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2518,167 +3328,275 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>449.23700000000002</v>
-      </c>
-      <c r="D40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>544.399</v>
+      </c>
+      <c r="D40">
+        <v>12.378</v>
+      </c>
+      <c r="E40">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F40">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41">
         <v>40</v>
       </c>
       <c r="C41">
-        <v>616.29499999999996</v>
-      </c>
-      <c r="D41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>568.48900000000003</v>
+      </c>
+      <c r="D41">
+        <v>12.957000000000001</v>
+      </c>
+      <c r="E41">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F41">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
       <c r="C42">
-        <v>621.94600000000003</v>
-      </c>
-      <c r="D42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>559.822</v>
+      </c>
+      <c r="D42">
+        <v>12.568</v>
+      </c>
+      <c r="E42">
+        <v>9.9999997764825821E-3</v>
+      </c>
+      <c r="F42">
+        <v>2.2450000000000001</v>
+      </c>
+      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
       <c r="C43">
-        <v>443.32100000000003</v>
-      </c>
-      <c r="D43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>562.03099999999995</v>
+      </c>
+      <c r="D43">
+        <v>13.02</v>
+      </c>
+      <c r="E43">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F43">
+        <v>2.1059999999999999</v>
+      </c>
+      <c r="G43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
       <c r="C44">
-        <v>619.62900000000002</v>
-      </c>
-      <c r="D44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>504.51499999999999</v>
+      </c>
+      <c r="D44">
+        <v>12.513999999999999</v>
+      </c>
+      <c r="E44">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F44">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
       <c r="C45">
-        <v>650.99300000000005</v>
-      </c>
-      <c r="D45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>515.60500000000002</v>
+      </c>
+      <c r="D45">
+        <v>12.82</v>
+      </c>
+      <c r="E45">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F45">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
       <c r="C46">
-        <v>575.64800000000002</v>
-      </c>
-      <c r="D46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>568.35699999999997</v>
+      </c>
+      <c r="D46">
+        <v>12.954000000000001</v>
+      </c>
+      <c r="E46">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F46">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
       <c r="C47">
-        <v>569.88699999999994</v>
-      </c>
-      <c r="D47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>492.67200000000003</v>
+      </c>
+      <c r="D47">
+        <v>12.840999999999999</v>
+      </c>
+      <c r="E47">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F47">
+        <v>2.1720000000000002</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48">
         <v>47</v>
       </c>
       <c r="C48">
-        <v>624.93499999999995</v>
-      </c>
-      <c r="D48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>524.41999999999996</v>
+      </c>
+      <c r="D48">
+        <v>13.013999999999999</v>
+      </c>
+      <c r="E48">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F48">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
       <c r="C49">
-        <v>481.74799999999999</v>
-      </c>
-      <c r="D49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>539.59100000000001</v>
+      </c>
+      <c r="D49">
+        <v>12.606999999999999</v>
+      </c>
+      <c r="E49">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F49">
+        <v>1.9470000000000001</v>
+      </c>
+      <c r="G49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
       <c r="C50">
-        <v>614.86699999999996</v>
-      </c>
-      <c r="D50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>557.30700000000002</v>
+      </c>
+      <c r="D50">
+        <v>12.696</v>
+      </c>
+      <c r="E50">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F50">
+        <v>2.0710000000000002</v>
+      </c>
+      <c r="G50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
       <c r="C51">
-        <v>647.17999999999995</v>
-      </c>
-      <c r="D51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>522.92499999999995</v>
+      </c>
+      <c r="D51">
+        <v>13.002000000000001</v>
+      </c>
+      <c r="E51">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F51">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2686,346 +3604,1836 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>1982.539</v>
-      </c>
-      <c r="D52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>529.35599999999999</v>
+      </c>
+      <c r="D52">
+        <v>13.308</v>
+      </c>
+      <c r="E52">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F52">
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="G52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53">
         <v>52</v>
       </c>
       <c r="C53">
-        <v>1982.989</v>
-      </c>
-      <c r="D53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>530.97900000000004</v>
+      </c>
+      <c r="D53">
+        <v>13.215</v>
+      </c>
+      <c r="E53">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F53">
+        <v>2.0739999999999998</v>
+      </c>
+      <c r="G53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
       <c r="C54">
-        <v>1984.2739999999999</v>
-      </c>
-      <c r="D54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>564.101</v>
+      </c>
+      <c r="D54">
+        <v>12.856999999999999</v>
+      </c>
+      <c r="E54">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F54">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55">
         <v>54</v>
       </c>
       <c r="C55">
-        <v>1307.377</v>
-      </c>
-      <c r="D55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>581.476</v>
+      </c>
+      <c r="D55">
+        <v>13.253</v>
+      </c>
+      <c r="E55">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F55">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56">
         <v>55</v>
       </c>
       <c r="C56">
-        <v>1981.519</v>
-      </c>
-      <c r="D56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>484.54700000000003</v>
+      </c>
+      <c r="D56">
+        <v>14.612</v>
+      </c>
+      <c r="E56">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F56">
+        <v>2.5129999999999999</v>
+      </c>
+      <c r="G56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B57">
         <v>56</v>
       </c>
       <c r="C57">
-        <v>2221.8119999999999</v>
-      </c>
-      <c r="D57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>519.41899999999998</v>
+      </c>
+      <c r="D57">
+        <v>13.132999999999999</v>
+      </c>
+      <c r="E57">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F57">
+        <v>2.1070000000000002</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B58">
         <v>57</v>
       </c>
       <c r="C58">
-        <v>2197.4920000000002</v>
-      </c>
-      <c r="D58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>537.56399999999996</v>
+      </c>
+      <c r="D58">
+        <v>13.366</v>
+      </c>
+      <c r="E58">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F58">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59">
         <v>58</v>
       </c>
       <c r="C59">
-        <v>1818.402</v>
-      </c>
-      <c r="D59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>547.51900000000001</v>
+      </c>
+      <c r="D59">
+        <v>12.467000000000001</v>
+      </c>
+      <c r="E59">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F59">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60">
         <v>59</v>
       </c>
       <c r="C60">
-        <v>1976.87</v>
-      </c>
-      <c r="D60" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>519.15</v>
+      </c>
+      <c r="D60">
+        <v>12.877000000000001</v>
+      </c>
+      <c r="E60">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F60">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="G60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61">
         <v>60</v>
       </c>
       <c r="C61">
-        <v>1718.0840000000001</v>
-      </c>
-      <c r="D61" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>581.476</v>
+      </c>
+      <c r="D61">
+        <v>13.253</v>
+      </c>
+      <c r="E61">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F61">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B62">
         <v>61</v>
       </c>
       <c r="C62">
-        <v>1955.2940000000001</v>
-      </c>
-      <c r="D62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>565.00900000000001</v>
+      </c>
+      <c r="D62">
+        <v>12.837</v>
+      </c>
+      <c r="E62">
+        <v>9.9999997764825821E-3</v>
+      </c>
+      <c r="F62">
+        <v>2.2719999999999998</v>
+      </c>
+      <c r="G62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B63">
         <v>62</v>
       </c>
       <c r="C63">
-        <v>2273.6570000000002</v>
-      </c>
-      <c r="D63" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>536.85500000000002</v>
+      </c>
+      <c r="D63">
+        <v>13.547000000000001</v>
+      </c>
+      <c r="E63">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F63">
+        <v>2.294</v>
+      </c>
+      <c r="G63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64">
         <v>63</v>
       </c>
       <c r="C64">
-        <v>14.920999999999999</v>
-      </c>
-      <c r="D64" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>512.17499999999995</v>
+      </c>
+      <c r="D64">
+        <v>12.704000000000001</v>
+      </c>
+      <c r="E64">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F64">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="G64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B65">
         <v>64</v>
       </c>
       <c r="C65">
-        <v>2261.31</v>
-      </c>
-      <c r="D65" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>577.83399999999995</v>
+      </c>
+      <c r="D65">
+        <v>13.17</v>
+      </c>
+      <c r="E65">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F65">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B66">
         <v>65</v>
       </c>
       <c r="C66">
-        <v>2277.4479999999999</v>
-      </c>
-      <c r="D66" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>582.00199999999995</v>
+      </c>
+      <c r="D66">
+        <v>13.265000000000001</v>
+      </c>
+      <c r="E66">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F66">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B67">
         <v>66</v>
       </c>
       <c r="C67">
-        <v>33.017000000000003</v>
-      </c>
-      <c r="D67" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>367.113</v>
+      </c>
+      <c r="D67">
+        <v>12.824</v>
+      </c>
+      <c r="E67">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F67">
+        <v>2.911</v>
+      </c>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
       <c r="C68">
-        <v>2274.6770000000001</v>
-      </c>
-      <c r="D68" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>579.42499999999995</v>
+      </c>
+      <c r="D68">
+        <v>13.218999999999999</v>
+      </c>
+      <c r="E68">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F68">
+        <v>2.0739999999999998</v>
+      </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
       <c r="C69">
-        <v>2422.9160000000002</v>
-      </c>
-      <c r="D69" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>546.61</v>
+      </c>
+      <c r="D69">
+        <v>13.157999999999999</v>
+      </c>
+      <c r="E69">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F69">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B70">
         <v>69</v>
       </c>
       <c r="C70">
-        <v>2343.549</v>
-      </c>
-      <c r="D70" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>561.96</v>
+      </c>
+      <c r="D70">
+        <v>12.802</v>
+      </c>
+      <c r="E70">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F70">
+        <v>2.0710000000000002</v>
+      </c>
+      <c r="G70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
       <c r="C71">
-        <v>2516.0030000000002</v>
-      </c>
-      <c r="D71" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>530.80799999999999</v>
+      </c>
+      <c r="D71">
+        <v>13.198</v>
+      </c>
+      <c r="E71">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F71">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
       <c r="C72">
-        <v>2275.018</v>
-      </c>
-      <c r="D72" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>577.74300000000005</v>
+      </c>
+      <c r="D72">
+        <v>13.384</v>
+      </c>
+      <c r="E72">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F72">
+        <v>2.1059999999999999</v>
+      </c>
+      <c r="G72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
       <c r="C73">
-        <v>2177.8490000000002</v>
-      </c>
-      <c r="D73" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>530.53700000000003</v>
+      </c>
+      <c r="D73">
+        <v>13.204000000000001</v>
+      </c>
+      <c r="E73">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F73">
+        <v>2.0739999999999998</v>
+      </c>
+      <c r="G73" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B74">
         <v>73</v>
       </c>
       <c r="C74">
-        <v>2228.0100000000002</v>
-      </c>
-      <c r="D74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>577.92200000000003</v>
+      </c>
+      <c r="D74">
+        <v>13.172000000000001</v>
+      </c>
+      <c r="E74">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F74">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75">
         <v>74</v>
       </c>
       <c r="C75">
-        <v>2367.877</v>
-      </c>
-      <c r="D75" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>581.476</v>
+      </c>
+      <c r="D75">
+        <v>13.253</v>
+      </c>
+      <c r="E75">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F75">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B76">
         <v>75</v>
       </c>
       <c r="C76">
-        <v>1874.1020000000001</v>
-      </c>
-      <c r="D76" t="s">
+        <v>584.56100000000004</v>
+      </c>
+      <c r="D76">
+        <v>13.214</v>
+      </c>
+      <c r="E76">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F76">
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="G76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>471.00599999999997</v>
+      </c>
+      <c r="D77">
+        <v>12.654999999999999</v>
+      </c>
+      <c r="E77">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F77">
+        <v>2.2389999999999999</v>
+      </c>
+      <c r="G77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>535.43299999999999</v>
+      </c>
+      <c r="D78">
+        <v>13.313000000000001</v>
+      </c>
+      <c r="E78">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F78">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79">
         <v>78</v>
+      </c>
+      <c r="C79">
+        <v>533.26099999999997</v>
+      </c>
+      <c r="D79">
+        <v>13.259</v>
+      </c>
+      <c r="E79">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F79">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>569.38</v>
+      </c>
+      <c r="D80">
+        <v>12.946</v>
+      </c>
+      <c r="E80">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F80">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="G80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>492.72300000000001</v>
+      </c>
+      <c r="D81">
+        <v>13.272</v>
+      </c>
+      <c r="E81">
+        <v>1.30000002682209E-2</v>
+      </c>
+      <c r="F81">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>542.09699999999998</v>
+      </c>
+      <c r="D82">
+        <v>13.212</v>
+      </c>
+      <c r="E82">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F82">
+        <v>2.0310000000000001</v>
+      </c>
+      <c r="G82" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>576.13300000000004</v>
+      </c>
+      <c r="D83">
+        <v>13.315</v>
+      </c>
+      <c r="E83">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F83">
+        <v>2.101</v>
+      </c>
+      <c r="G83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>526.35400000000004</v>
+      </c>
+      <c r="D84">
+        <v>13.061999999999999</v>
+      </c>
+      <c r="E84">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F84">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="G84" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>582.57299999999998</v>
+      </c>
+      <c r="D85">
+        <v>13.278</v>
+      </c>
+      <c r="E85">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F85">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>582.00199999999995</v>
+      </c>
+      <c r="D86">
+        <v>13.265000000000001</v>
+      </c>
+      <c r="E86">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F86">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G86" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>424.18599999999998</v>
+      </c>
+      <c r="D87">
+        <v>13.087</v>
+      </c>
+      <c r="E87">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F87">
+        <v>2.5710000000000002</v>
+      </c>
+      <c r="G87" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>578.94299999999998</v>
+      </c>
+      <c r="D88">
+        <v>13.208</v>
+      </c>
+      <c r="E88">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F88">
+        <v>2.0739999999999998</v>
+      </c>
+      <c r="G88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>554.82500000000005</v>
+      </c>
+      <c r="D89">
+        <v>12.903</v>
+      </c>
+      <c r="E89">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F89">
+        <v>1.9379999999999999</v>
+      </c>
+      <c r="G89" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>519.79700000000003</v>
+      </c>
+      <c r="D90">
+        <v>12.917999999999999</v>
+      </c>
+      <c r="E90">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F90">
+        <v>2.0710000000000002</v>
+      </c>
+      <c r="G90" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>573.096</v>
+      </c>
+      <c r="D91">
+        <v>13.061999999999999</v>
+      </c>
+      <c r="E91">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F91">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="G91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>579.60500000000002</v>
+      </c>
+      <c r="D92">
+        <v>13.305999999999999</v>
+      </c>
+      <c r="E92">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F92">
+        <v>2.0870000000000002</v>
+      </c>
+      <c r="G92" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>582.81700000000001</v>
+      </c>
+      <c r="D93">
+        <v>13.180999999999999</v>
+      </c>
+      <c r="E93">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F93">
+        <v>2.056</v>
+      </c>
+      <c r="G93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>509.81299999999999</v>
+      </c>
+      <c r="D94">
+        <v>12.571999999999999</v>
+      </c>
+      <c r="E94">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F94">
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="G94" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>4</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>584.56100000000004</v>
+      </c>
+      <c r="D95">
+        <v>13.214</v>
+      </c>
+      <c r="E95">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F95">
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="G95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <v>590.14200000000005</v>
+      </c>
+      <c r="D96">
+        <v>13.074</v>
+      </c>
+      <c r="E96">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F96">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="G96" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>386.93299999999999</v>
+      </c>
+      <c r="D97">
+        <v>11.673</v>
+      </c>
+      <c r="E97">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F97">
+        <v>2.5139999999999998</v>
+      </c>
+      <c r="G97" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <v>540.45000000000005</v>
+      </c>
+      <c r="D98">
+        <v>13.321</v>
+      </c>
+      <c r="E98">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F98">
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="G98" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <v>578.56100000000004</v>
+      </c>
+      <c r="D99">
+        <v>13.071999999999999</v>
+      </c>
+      <c r="E99">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F99">
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="G99" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <v>567.99300000000005</v>
+      </c>
+      <c r="D100">
+        <v>12.802</v>
+      </c>
+      <c r="E100">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F100">
+        <v>2.0489999999999999</v>
+      </c>
+      <c r="G100" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <v>459.92399999999998</v>
+      </c>
+      <c r="D101">
+        <v>13.231999999999999</v>
+      </c>
+      <c r="E101">
+        <v>1.4000000432133669E-2</v>
+      </c>
+      <c r="F101">
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="G101" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102">
+        <v>582.30200000000002</v>
+      </c>
+      <c r="D102">
+        <v>13.227</v>
+      </c>
+      <c r="E102">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F102">
+        <v>2.0649999999999999</v>
+      </c>
+      <c r="G102" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103">
+        <v>567.245</v>
+      </c>
+      <c r="D103">
+        <v>13.327999999999999</v>
+      </c>
+      <c r="E103">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F103">
+        <v>2.1360000000000001</v>
+      </c>
+      <c r="G103" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>4</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104">
+        <v>571.32100000000003</v>
+      </c>
+      <c r="D104">
+        <v>12.877000000000001</v>
+      </c>
+      <c r="E104">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F104">
+        <v>2.0489999999999999</v>
+      </c>
+      <c r="G104" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105">
+        <v>530.57600000000002</v>
+      </c>
+      <c r="D105">
+        <v>13.084</v>
+      </c>
+      <c r="E105">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F105">
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="G105" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>4</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="C106">
+        <v>584.56100000000004</v>
+      </c>
+      <c r="D106">
+        <v>13.214</v>
+      </c>
+      <c r="E106">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F106">
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="G106" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107">
+        <v>529.08799999999997</v>
+      </c>
+      <c r="D107">
+        <v>13.186999999999999</v>
+      </c>
+      <c r="E107">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F107">
+        <v>2.077</v>
+      </c>
+      <c r="G107" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>4</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108">
+        <v>556.08799999999997</v>
+      </c>
+      <c r="D108">
+        <v>12.76</v>
+      </c>
+      <c r="E108">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F108">
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="G108" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="C109">
+        <v>578.41800000000001</v>
+      </c>
+      <c r="D109">
+        <v>13.336</v>
+      </c>
+      <c r="E109">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F109">
+        <v>2.0960000000000001</v>
+      </c>
+      <c r="G109" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>4</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="C110">
+        <v>557.322</v>
+      </c>
+      <c r="D110">
+        <v>12.586</v>
+      </c>
+      <c r="E110">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F110">
+        <v>2.0529999999999999</v>
+      </c>
+      <c r="G110" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>4</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="C111">
+        <v>538.28099999999995</v>
+      </c>
+      <c r="D111">
+        <v>13.273999999999999</v>
+      </c>
+      <c r="E111">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F111">
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="G111" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>5</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="C112">
+        <v>590.14200000000005</v>
+      </c>
+      <c r="D112">
+        <v>13.074</v>
+      </c>
+      <c r="E112">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F112">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="G112" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>5</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="C113">
+        <v>587.322</v>
+      </c>
+      <c r="D113">
+        <v>13.018000000000001</v>
+      </c>
+      <c r="E113">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F113">
+        <v>2.0150000000000001</v>
+      </c>
+      <c r="G113" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>5</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="C114">
+        <v>412.89800000000002</v>
+      </c>
+      <c r="D114">
+        <v>9.9689999999999994</v>
+      </c>
+      <c r="E114">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F114">
+        <v>2.012</v>
+      </c>
+      <c r="G114" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>5</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="C115">
+        <v>540.96299999999997</v>
+      </c>
+      <c r="D115">
+        <v>13.074</v>
+      </c>
+      <c r="E115">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F115">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="G115" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>5</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="C116">
+        <v>519.97500000000002</v>
+      </c>
+      <c r="D116">
+        <v>13.484</v>
+      </c>
+      <c r="E116">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F116">
+        <v>2.161</v>
+      </c>
+      <c r="G116" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>5</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="C117">
+        <v>563.90800000000002</v>
+      </c>
+      <c r="D117">
+        <v>12.865</v>
+      </c>
+      <c r="E117">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F117">
+        <v>2.0739999999999998</v>
+      </c>
+      <c r="G117" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>5</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="C118">
+        <v>543.11500000000001</v>
+      </c>
+      <c r="D118">
+        <v>13.125999999999999</v>
+      </c>
+      <c r="E118">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F118">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="G118" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>5</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="C119">
+        <v>504.14</v>
+      </c>
+      <c r="D119">
+        <v>11.141</v>
+      </c>
+      <c r="E119">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F119">
+        <v>2.0089999999999999</v>
+      </c>
+      <c r="G119" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>5</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="C120">
+        <v>569.34699999999998</v>
+      </c>
+      <c r="D120">
+        <v>12.582000000000001</v>
+      </c>
+      <c r="E120">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F120">
+        <v>2.0089999999999999</v>
+      </c>
+      <c r="G120" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>5</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="C121">
+        <v>541.21199999999999</v>
+      </c>
+      <c r="D121">
+        <v>13.08</v>
+      </c>
+      <c r="E121">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F121">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="G121" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>5</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="C122">
+        <v>545.50800000000004</v>
+      </c>
+      <c r="D122">
+        <v>12.994</v>
+      </c>
+      <c r="E122">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F122">
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="G122" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123">
+        <v>555.12199999999996</v>
+      </c>
+      <c r="D123">
+        <v>12.79</v>
+      </c>
+      <c r="E123">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F123">
+        <v>1.92</v>
+      </c>
+      <c r="G123" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="C124">
+        <v>578.57799999999997</v>
+      </c>
+      <c r="D124">
+        <v>12.786</v>
+      </c>
+      <c r="E124">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F124">
+        <v>2.0089999999999999</v>
+      </c>
+      <c r="G124" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>5</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="C125">
+        <v>534.59100000000001</v>
+      </c>
+      <c r="D125">
+        <v>12.92</v>
+      </c>
+      <c r="E125">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F125">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="G125" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="C126">
+        <v>590.14200000000005</v>
+      </c>
+      <c r="D126">
+        <v>13.074</v>
+      </c>
+      <c r="E126">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F126">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="G126" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="C127">
+        <v>487.05</v>
+      </c>
+      <c r="D127">
+        <v>12.975</v>
+      </c>
+      <c r="E127">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F127">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G127" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="C128">
+        <v>589.01300000000003</v>
+      </c>
+      <c r="D128">
+        <v>13.048999999999999</v>
+      </c>
+      <c r="E128">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F128">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="G128" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>5</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="C129">
+        <v>563.06100000000004</v>
+      </c>
+      <c r="D129">
+        <v>12.804</v>
+      </c>
+      <c r="E129">
+        <v>1.200000010430813E-2</v>
+      </c>
+      <c r="F129">
+        <v>1.895</v>
+      </c>
+      <c r="G129" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+      <c r="C130">
+        <v>586.53099999999995</v>
+      </c>
+      <c r="D130">
+        <v>12.994</v>
+      </c>
+      <c r="E130">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F130">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="G130" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>5</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+      <c r="C131">
+        <v>592.66899999999998</v>
+      </c>
+      <c r="D131">
+        <v>13.13</v>
+      </c>
+      <c r="E131">
+        <v>1.099999994039536E-2</v>
+      </c>
+      <c r="F131">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="G131" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
